--- a/formshare/tests/resources/forms/form08_OK_dc.xlsx
+++ b/formshare/tests/resources/forms/form08_OK_dc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t xml:space="preserve">form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
   </si>
   <si>
     <t xml:space="preserve">Just a test</t>
@@ -303,11 +306,11 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.69"/>
@@ -469,7 +472,7 @@
       <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.59"/>
@@ -640,11 +643,11 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.41"/>
@@ -659,14 +662,19 @@
       <c r="B1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
